--- a/gameTb/game/table/网络配置.xlsx
+++ b/gameTb/game/table/网络配置.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\solution\resource\gameTb\agent\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\solution\resource\gameTb\game\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,6 @@
   </sheets>
   <definedNames>
     <definedName name="appTypek">appType.j!$A:$A</definedName>
-    <definedName name="conditionTypek">#REF!</definedName>
     <definedName name="dispatchIdk">dispatchId.j!$A:$A</definedName>
     <definedName name="reconnectk">reconnect.j!$A:$A</definedName>
     <definedName name="rewardTypek">rewardType.j!$A:$A</definedName>

--- a/gameTb/game/table/网络配置.xlsx
+++ b/gameTb/game/table/网络配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="netReward" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>int32_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,13 @@
   </si>
   <si>
     <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始监听</t>
+  </si>
+  <si>
+    <t>开始监听</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,11 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -794,6 +801,14 @@
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -872,9 +887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1232,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1243,7 +1258,16 @@
     <col min="1" max="1" width="18.25" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
